--- a/FR_CP-KS_Syllabus_v0.9.xlsx
+++ b/FR_CP-KS_Syllabus_v0.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A617E6-C69A-4E50-85EE-C3BE262AA2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C999C49-6E19-43FC-9657-3FA05778D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScheduleDetail!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ScheduleDetail!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -156,43 +156,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Windows User</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>FA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- Điền giá trị số vào cột A, C
-- Điền text vào cột B</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="116">
   <si>
     <t>Topic Name</t>
   </si>
@@ -203,9 +168,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Concept/Lecture</t>
-  </si>
-  <si>
     <t>Guides/Review</t>
   </si>
   <si>
@@ -216,9 +178,6 @@
   </si>
   <si>
     <t>Training Unit/Chapter</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
   <si>
     <t>Content</t>
@@ -240,9 +199,6 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>AAAAAH/rVCM=</t>
   </si>
   <si>
@@ -253,9 +209,6 @@
   </si>
   <si>
     <t>Technical Group</t>
-  </si>
-  <si>
-    <t>Seminar/Workshop</t>
   </si>
   <si>
     <t>Class Meeting</t>
@@ -562,22 +515,7 @@
     <t>Final Project Report</t>
   </si>
   <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>`</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>11-14</t>
-  </si>
-  <si>
-    <t>16-19</t>
   </si>
   <si>
     <t>Due: end of week 4 (Software Design)
@@ -589,9 +527,6 @@
 Output: Report 5 -  Software Test Documentation (STD)
 Report 5, in which the team provides all the information, excepts for
 the Test Cases &amp; Test Reports (parts II.4 &amp; II.5) to be completed later</t>
-  </si>
-  <si>
-    <t>21-24</t>
   </si>
   <si>
     <t>Due: end of week 7 (Code Iteration 1)
@@ -605,24 +540,12 @@
 (3) Updated Project Schedule/Tracking</t>
   </si>
   <si>
-    <t>26-34</t>
-  </si>
-  <si>
     <t>Due: end of week 9 (Code Iteration 2)
 Outputs: Software Package 2</t>
   </si>
   <si>
-    <t>36-44</t>
-  </si>
-  <si>
-    <t>46-54</t>
-  </si>
-  <si>
     <t>Due: end of week 11 (Code Iteration 3)
 Outputs: Software Package 3</t>
-  </si>
-  <si>
-    <t>56-64</t>
   </si>
   <si>
     <t>Due: end of week 13 (System Testing)
@@ -634,9 +557,6 @@
 - Test Cases &amp; Reports: ST, IT, Defects List (in the Updated Report 5)
 (2) Updated Reports 1, 2, 3, 4, 5
 (3) Updated Project Schedule/Tracking</t>
-  </si>
-  <si>
-    <t>66-69</t>
   </si>
   <si>
     <t>Due: end of week 15 (Transition)
@@ -665,9 +585,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="31">
@@ -1218,7 +1137,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -1237,22 +1156,9 @@
     <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1318,9 +1224,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,6 +1240,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,6 +1305,15 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,45 +1347,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,14 +1356,23 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1911,583 +1799,583 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="29" customWidth="1"/>
-    <col min="2" max="256" width="8.6640625" style="29"/>
-    <col min="257" max="257" width="3" style="29" customWidth="1"/>
-    <col min="258" max="512" width="8.6640625" style="29"/>
-    <col min="513" max="513" width="3" style="29" customWidth="1"/>
-    <col min="514" max="768" width="8.6640625" style="29"/>
-    <col min="769" max="769" width="3" style="29" customWidth="1"/>
-    <col min="770" max="1024" width="8.6640625" style="29"/>
-    <col min="1025" max="1025" width="3" style="29" customWidth="1"/>
-    <col min="1026" max="1280" width="8.6640625" style="29"/>
-    <col min="1281" max="1281" width="3" style="29" customWidth="1"/>
-    <col min="1282" max="1536" width="8.6640625" style="29"/>
-    <col min="1537" max="1537" width="3" style="29" customWidth="1"/>
-    <col min="1538" max="1792" width="8.6640625" style="29"/>
-    <col min="1793" max="1793" width="3" style="29" customWidth="1"/>
-    <col min="1794" max="2048" width="8.6640625" style="29"/>
-    <col min="2049" max="2049" width="3" style="29" customWidth="1"/>
-    <col min="2050" max="2304" width="8.6640625" style="29"/>
-    <col min="2305" max="2305" width="3" style="29" customWidth="1"/>
-    <col min="2306" max="2560" width="8.6640625" style="29"/>
-    <col min="2561" max="2561" width="3" style="29" customWidth="1"/>
-    <col min="2562" max="2816" width="8.6640625" style="29"/>
-    <col min="2817" max="2817" width="3" style="29" customWidth="1"/>
-    <col min="2818" max="3072" width="8.6640625" style="29"/>
-    <col min="3073" max="3073" width="3" style="29" customWidth="1"/>
-    <col min="3074" max="3328" width="8.6640625" style="29"/>
-    <col min="3329" max="3329" width="3" style="29" customWidth="1"/>
-    <col min="3330" max="3584" width="8.6640625" style="29"/>
-    <col min="3585" max="3585" width="3" style="29" customWidth="1"/>
-    <col min="3586" max="3840" width="8.6640625" style="29"/>
-    <col min="3841" max="3841" width="3" style="29" customWidth="1"/>
-    <col min="3842" max="4096" width="8.6640625" style="29"/>
-    <col min="4097" max="4097" width="3" style="29" customWidth="1"/>
-    <col min="4098" max="4352" width="8.6640625" style="29"/>
-    <col min="4353" max="4353" width="3" style="29" customWidth="1"/>
-    <col min="4354" max="4608" width="8.6640625" style="29"/>
-    <col min="4609" max="4609" width="3" style="29" customWidth="1"/>
-    <col min="4610" max="4864" width="8.6640625" style="29"/>
-    <col min="4865" max="4865" width="3" style="29" customWidth="1"/>
-    <col min="4866" max="5120" width="8.6640625" style="29"/>
-    <col min="5121" max="5121" width="3" style="29" customWidth="1"/>
-    <col min="5122" max="5376" width="8.6640625" style="29"/>
-    <col min="5377" max="5377" width="3" style="29" customWidth="1"/>
-    <col min="5378" max="5632" width="8.6640625" style="29"/>
-    <col min="5633" max="5633" width="3" style="29" customWidth="1"/>
-    <col min="5634" max="5888" width="8.6640625" style="29"/>
-    <col min="5889" max="5889" width="3" style="29" customWidth="1"/>
-    <col min="5890" max="6144" width="8.6640625" style="29"/>
-    <col min="6145" max="6145" width="3" style="29" customWidth="1"/>
-    <col min="6146" max="6400" width="8.6640625" style="29"/>
-    <col min="6401" max="6401" width="3" style="29" customWidth="1"/>
-    <col min="6402" max="6656" width="8.6640625" style="29"/>
-    <col min="6657" max="6657" width="3" style="29" customWidth="1"/>
-    <col min="6658" max="6912" width="8.6640625" style="29"/>
-    <col min="6913" max="6913" width="3" style="29" customWidth="1"/>
-    <col min="6914" max="7168" width="8.6640625" style="29"/>
-    <col min="7169" max="7169" width="3" style="29" customWidth="1"/>
-    <col min="7170" max="7424" width="8.6640625" style="29"/>
-    <col min="7425" max="7425" width="3" style="29" customWidth="1"/>
-    <col min="7426" max="7680" width="8.6640625" style="29"/>
-    <col min="7681" max="7681" width="3" style="29" customWidth="1"/>
-    <col min="7682" max="7936" width="8.6640625" style="29"/>
-    <col min="7937" max="7937" width="3" style="29" customWidth="1"/>
-    <col min="7938" max="8192" width="8.6640625" style="29"/>
-    <col min="8193" max="8193" width="3" style="29" customWidth="1"/>
-    <col min="8194" max="8448" width="8.6640625" style="29"/>
-    <col min="8449" max="8449" width="3" style="29" customWidth="1"/>
-    <col min="8450" max="8704" width="8.6640625" style="29"/>
-    <col min="8705" max="8705" width="3" style="29" customWidth="1"/>
-    <col min="8706" max="8960" width="8.6640625" style="29"/>
-    <col min="8961" max="8961" width="3" style="29" customWidth="1"/>
-    <col min="8962" max="9216" width="8.6640625" style="29"/>
-    <col min="9217" max="9217" width="3" style="29" customWidth="1"/>
-    <col min="9218" max="9472" width="8.6640625" style="29"/>
-    <col min="9473" max="9473" width="3" style="29" customWidth="1"/>
-    <col min="9474" max="9728" width="8.6640625" style="29"/>
-    <col min="9729" max="9729" width="3" style="29" customWidth="1"/>
-    <col min="9730" max="9984" width="8.6640625" style="29"/>
-    <col min="9985" max="9985" width="3" style="29" customWidth="1"/>
-    <col min="9986" max="10240" width="8.6640625" style="29"/>
-    <col min="10241" max="10241" width="3" style="29" customWidth="1"/>
-    <col min="10242" max="10496" width="8.6640625" style="29"/>
-    <col min="10497" max="10497" width="3" style="29" customWidth="1"/>
-    <col min="10498" max="10752" width="8.6640625" style="29"/>
-    <col min="10753" max="10753" width="3" style="29" customWidth="1"/>
-    <col min="10754" max="11008" width="8.6640625" style="29"/>
-    <col min="11009" max="11009" width="3" style="29" customWidth="1"/>
-    <col min="11010" max="11264" width="8.6640625" style="29"/>
-    <col min="11265" max="11265" width="3" style="29" customWidth="1"/>
-    <col min="11266" max="11520" width="8.6640625" style="29"/>
-    <col min="11521" max="11521" width="3" style="29" customWidth="1"/>
-    <col min="11522" max="11776" width="8.6640625" style="29"/>
-    <col min="11777" max="11777" width="3" style="29" customWidth="1"/>
-    <col min="11778" max="12032" width="8.6640625" style="29"/>
-    <col min="12033" max="12033" width="3" style="29" customWidth="1"/>
-    <col min="12034" max="12288" width="8.6640625" style="29"/>
-    <col min="12289" max="12289" width="3" style="29" customWidth="1"/>
-    <col min="12290" max="12544" width="8.6640625" style="29"/>
-    <col min="12545" max="12545" width="3" style="29" customWidth="1"/>
-    <col min="12546" max="12800" width="8.6640625" style="29"/>
-    <col min="12801" max="12801" width="3" style="29" customWidth="1"/>
-    <col min="12802" max="13056" width="8.6640625" style="29"/>
-    <col min="13057" max="13057" width="3" style="29" customWidth="1"/>
-    <col min="13058" max="13312" width="8.6640625" style="29"/>
-    <col min="13313" max="13313" width="3" style="29" customWidth="1"/>
-    <col min="13314" max="13568" width="8.6640625" style="29"/>
-    <col min="13569" max="13569" width="3" style="29" customWidth="1"/>
-    <col min="13570" max="13824" width="8.6640625" style="29"/>
-    <col min="13825" max="13825" width="3" style="29" customWidth="1"/>
-    <col min="13826" max="14080" width="8.6640625" style="29"/>
-    <col min="14081" max="14081" width="3" style="29" customWidth="1"/>
-    <col min="14082" max="14336" width="8.6640625" style="29"/>
-    <col min="14337" max="14337" width="3" style="29" customWidth="1"/>
-    <col min="14338" max="14592" width="8.6640625" style="29"/>
-    <col min="14593" max="14593" width="3" style="29" customWidth="1"/>
-    <col min="14594" max="14848" width="8.6640625" style="29"/>
-    <col min="14849" max="14849" width="3" style="29" customWidth="1"/>
-    <col min="14850" max="15104" width="8.6640625" style="29"/>
-    <col min="15105" max="15105" width="3" style="29" customWidth="1"/>
-    <col min="15106" max="15360" width="8.6640625" style="29"/>
-    <col min="15361" max="15361" width="3" style="29" customWidth="1"/>
-    <col min="15362" max="15616" width="8.6640625" style="29"/>
-    <col min="15617" max="15617" width="3" style="29" customWidth="1"/>
-    <col min="15618" max="15872" width="8.6640625" style="29"/>
-    <col min="15873" max="15873" width="3" style="29" customWidth="1"/>
-    <col min="15874" max="16128" width="8.6640625" style="29"/>
-    <col min="16129" max="16129" width="3" style="29" customWidth="1"/>
-    <col min="16130" max="16384" width="8.6640625" style="29"/>
+    <col min="1" max="1" width="3" style="24" customWidth="1"/>
+    <col min="2" max="256" width="8.6640625" style="24"/>
+    <col min="257" max="257" width="3" style="24" customWidth="1"/>
+    <col min="258" max="512" width="8.6640625" style="24"/>
+    <col min="513" max="513" width="3" style="24" customWidth="1"/>
+    <col min="514" max="768" width="8.6640625" style="24"/>
+    <col min="769" max="769" width="3" style="24" customWidth="1"/>
+    <col min="770" max="1024" width="8.6640625" style="24"/>
+    <col min="1025" max="1025" width="3" style="24" customWidth="1"/>
+    <col min="1026" max="1280" width="8.6640625" style="24"/>
+    <col min="1281" max="1281" width="3" style="24" customWidth="1"/>
+    <col min="1282" max="1536" width="8.6640625" style="24"/>
+    <col min="1537" max="1537" width="3" style="24" customWidth="1"/>
+    <col min="1538" max="1792" width="8.6640625" style="24"/>
+    <col min="1793" max="1793" width="3" style="24" customWidth="1"/>
+    <col min="1794" max="2048" width="8.6640625" style="24"/>
+    <col min="2049" max="2049" width="3" style="24" customWidth="1"/>
+    <col min="2050" max="2304" width="8.6640625" style="24"/>
+    <col min="2305" max="2305" width="3" style="24" customWidth="1"/>
+    <col min="2306" max="2560" width="8.6640625" style="24"/>
+    <col min="2561" max="2561" width="3" style="24" customWidth="1"/>
+    <col min="2562" max="2816" width="8.6640625" style="24"/>
+    <col min="2817" max="2817" width="3" style="24" customWidth="1"/>
+    <col min="2818" max="3072" width="8.6640625" style="24"/>
+    <col min="3073" max="3073" width="3" style="24" customWidth="1"/>
+    <col min="3074" max="3328" width="8.6640625" style="24"/>
+    <col min="3329" max="3329" width="3" style="24" customWidth="1"/>
+    <col min="3330" max="3584" width="8.6640625" style="24"/>
+    <col min="3585" max="3585" width="3" style="24" customWidth="1"/>
+    <col min="3586" max="3840" width="8.6640625" style="24"/>
+    <col min="3841" max="3841" width="3" style="24" customWidth="1"/>
+    <col min="3842" max="4096" width="8.6640625" style="24"/>
+    <col min="4097" max="4097" width="3" style="24" customWidth="1"/>
+    <col min="4098" max="4352" width="8.6640625" style="24"/>
+    <col min="4353" max="4353" width="3" style="24" customWidth="1"/>
+    <col min="4354" max="4608" width="8.6640625" style="24"/>
+    <col min="4609" max="4609" width="3" style="24" customWidth="1"/>
+    <col min="4610" max="4864" width="8.6640625" style="24"/>
+    <col min="4865" max="4865" width="3" style="24" customWidth="1"/>
+    <col min="4866" max="5120" width="8.6640625" style="24"/>
+    <col min="5121" max="5121" width="3" style="24" customWidth="1"/>
+    <col min="5122" max="5376" width="8.6640625" style="24"/>
+    <col min="5377" max="5377" width="3" style="24" customWidth="1"/>
+    <col min="5378" max="5632" width="8.6640625" style="24"/>
+    <col min="5633" max="5633" width="3" style="24" customWidth="1"/>
+    <col min="5634" max="5888" width="8.6640625" style="24"/>
+    <col min="5889" max="5889" width="3" style="24" customWidth="1"/>
+    <col min="5890" max="6144" width="8.6640625" style="24"/>
+    <col min="6145" max="6145" width="3" style="24" customWidth="1"/>
+    <col min="6146" max="6400" width="8.6640625" style="24"/>
+    <col min="6401" max="6401" width="3" style="24" customWidth="1"/>
+    <col min="6402" max="6656" width="8.6640625" style="24"/>
+    <col min="6657" max="6657" width="3" style="24" customWidth="1"/>
+    <col min="6658" max="6912" width="8.6640625" style="24"/>
+    <col min="6913" max="6913" width="3" style="24" customWidth="1"/>
+    <col min="6914" max="7168" width="8.6640625" style="24"/>
+    <col min="7169" max="7169" width="3" style="24" customWidth="1"/>
+    <col min="7170" max="7424" width="8.6640625" style="24"/>
+    <col min="7425" max="7425" width="3" style="24" customWidth="1"/>
+    <col min="7426" max="7680" width="8.6640625" style="24"/>
+    <col min="7681" max="7681" width="3" style="24" customWidth="1"/>
+    <col min="7682" max="7936" width="8.6640625" style="24"/>
+    <col min="7937" max="7937" width="3" style="24" customWidth="1"/>
+    <col min="7938" max="8192" width="8.6640625" style="24"/>
+    <col min="8193" max="8193" width="3" style="24" customWidth="1"/>
+    <col min="8194" max="8448" width="8.6640625" style="24"/>
+    <col min="8449" max="8449" width="3" style="24" customWidth="1"/>
+    <col min="8450" max="8704" width="8.6640625" style="24"/>
+    <col min="8705" max="8705" width="3" style="24" customWidth="1"/>
+    <col min="8706" max="8960" width="8.6640625" style="24"/>
+    <col min="8961" max="8961" width="3" style="24" customWidth="1"/>
+    <col min="8962" max="9216" width="8.6640625" style="24"/>
+    <col min="9217" max="9217" width="3" style="24" customWidth="1"/>
+    <col min="9218" max="9472" width="8.6640625" style="24"/>
+    <col min="9473" max="9473" width="3" style="24" customWidth="1"/>
+    <col min="9474" max="9728" width="8.6640625" style="24"/>
+    <col min="9729" max="9729" width="3" style="24" customWidth="1"/>
+    <col min="9730" max="9984" width="8.6640625" style="24"/>
+    <col min="9985" max="9985" width="3" style="24" customWidth="1"/>
+    <col min="9986" max="10240" width="8.6640625" style="24"/>
+    <col min="10241" max="10241" width="3" style="24" customWidth="1"/>
+    <col min="10242" max="10496" width="8.6640625" style="24"/>
+    <col min="10497" max="10497" width="3" style="24" customWidth="1"/>
+    <col min="10498" max="10752" width="8.6640625" style="24"/>
+    <col min="10753" max="10753" width="3" style="24" customWidth="1"/>
+    <col min="10754" max="11008" width="8.6640625" style="24"/>
+    <col min="11009" max="11009" width="3" style="24" customWidth="1"/>
+    <col min="11010" max="11264" width="8.6640625" style="24"/>
+    <col min="11265" max="11265" width="3" style="24" customWidth="1"/>
+    <col min="11266" max="11520" width="8.6640625" style="24"/>
+    <col min="11521" max="11521" width="3" style="24" customWidth="1"/>
+    <col min="11522" max="11776" width="8.6640625" style="24"/>
+    <col min="11777" max="11777" width="3" style="24" customWidth="1"/>
+    <col min="11778" max="12032" width="8.6640625" style="24"/>
+    <col min="12033" max="12033" width="3" style="24" customWidth="1"/>
+    <col min="12034" max="12288" width="8.6640625" style="24"/>
+    <col min="12289" max="12289" width="3" style="24" customWidth="1"/>
+    <col min="12290" max="12544" width="8.6640625" style="24"/>
+    <col min="12545" max="12545" width="3" style="24" customWidth="1"/>
+    <col min="12546" max="12800" width="8.6640625" style="24"/>
+    <col min="12801" max="12801" width="3" style="24" customWidth="1"/>
+    <col min="12802" max="13056" width="8.6640625" style="24"/>
+    <col min="13057" max="13057" width="3" style="24" customWidth="1"/>
+    <col min="13058" max="13312" width="8.6640625" style="24"/>
+    <col min="13313" max="13313" width="3" style="24" customWidth="1"/>
+    <col min="13314" max="13568" width="8.6640625" style="24"/>
+    <col min="13569" max="13569" width="3" style="24" customWidth="1"/>
+    <col min="13570" max="13824" width="8.6640625" style="24"/>
+    <col min="13825" max="13825" width="3" style="24" customWidth="1"/>
+    <col min="13826" max="14080" width="8.6640625" style="24"/>
+    <col min="14081" max="14081" width="3" style="24" customWidth="1"/>
+    <col min="14082" max="14336" width="8.6640625" style="24"/>
+    <col min="14337" max="14337" width="3" style="24" customWidth="1"/>
+    <col min="14338" max="14592" width="8.6640625" style="24"/>
+    <col min="14593" max="14593" width="3" style="24" customWidth="1"/>
+    <col min="14594" max="14848" width="8.6640625" style="24"/>
+    <col min="14849" max="14849" width="3" style="24" customWidth="1"/>
+    <col min="14850" max="15104" width="8.6640625" style="24"/>
+    <col min="15105" max="15105" width="3" style="24" customWidth="1"/>
+    <col min="15106" max="15360" width="8.6640625" style="24"/>
+    <col min="15361" max="15361" width="3" style="24" customWidth="1"/>
+    <col min="15362" max="15616" width="8.6640625" style="24"/>
+    <col min="15617" max="15617" width="3" style="24" customWidth="1"/>
+    <col min="15618" max="15872" width="8.6640625" style="24"/>
+    <col min="15873" max="15873" width="3" style="24" customWidth="1"/>
+    <col min="15874" max="16128" width="8.6640625" style="24"/>
+    <col min="16129" max="16129" width="3" style="24" customWidth="1"/>
+    <col min="16130" max="16384" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.4">
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="14.4">
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" ht="14.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="2:15" ht="15.6">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="2:15" ht="14.4">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="2:15" ht="14.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="2:15" ht="14.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="2:15" ht="14.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="2:15" ht="14.4">
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="2:15" ht="14.4">
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="2:15" s="35" customFormat="1" ht="17.399999999999999">
-      <c r="B11" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-    </row>
-    <row r="12" spans="2:15" s="35" customFormat="1" ht="18">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="39"/>
-    </row>
-    <row r="13" spans="2:15" s="35" customFormat="1" ht="24.6">
-      <c r="B13" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="2:15" s="30" customFormat="1" ht="17.399999999999999">
+      <c r="B11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="2:15" s="30" customFormat="1" ht="18">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="2:15" s="30" customFormat="1" ht="24.6">
+      <c r="B13" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" spans="2:15" ht="14.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="2:15" ht="14.4">
-      <c r="B15" s="34"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="2:15" ht="14.4">
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="2:15" ht="24" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="69" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="24" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="14.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="2:15" ht="14.4">
-      <c r="B21" s="34"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="2:15" ht="14.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:15" ht="14.4">
-      <c r="B23" s="34"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="2:15" ht="14.4">
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="2:15" ht="14.4">
-      <c r="B25" s="34"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="2:15" ht="14.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:15" ht="14.4">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="42"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2515,397 +2403,397 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="15" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" style="15" customWidth="1"/>
-    <col min="11" max="16" width="9.109375" style="15"/>
-    <col min="17" max="17" width="9.109375" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="4.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="10" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="10" customWidth="1"/>
+    <col min="11" max="16" width="9.109375" style="10"/>
+    <col min="17" max="17" width="9.109375" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="A1" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="80">
+        <v>1</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17">
         <v>6</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="81">
-        <v>1</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-    </row>
-    <row r="6" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A6" s="84">
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="40" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="101"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="22">
-        <v>6</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="45" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2938,1747 +2826,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="65.109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="65.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A1" s="97" t="str">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A1" s="83" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
         <v>Capstone Project FU KS - Training Schedule</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="9">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="8">
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="39" customHeight="1">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:10" ht="39" customHeight="1">
+      <c r="A2" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="H2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="88">
+        <v>1</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16">
+        <v>120</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="95">
-        <v>1</v>
-      </c>
-      <c r="B3" s="90" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="89"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="89"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="16">
+        <v>120</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="90">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="89"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.4">
+      <c r="A9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="16">
+        <v>120</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="89"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="88">
+        <v>2</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16">
+        <v>120</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4">
+      <c r="A12" s="89"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="D12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="16">
         <v>120</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="96"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="3" t="s">
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="89"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>120</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16">
+        <v>120</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.4">
+      <c r="A15" s="89"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="16">
+        <v>120</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.4">
+      <c r="A16" s="89"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
+        <v>120</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="88">
+        <v>3</v>
+      </c>
+      <c r="B17" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="16">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.7" customHeight="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="16">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="46.95" customHeight="1">
+      <c r="A20" s="89"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="16">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="67.95" customHeight="1">
+      <c r="A21" s="89"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="16">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="88">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
-        <f>K1-G3</f>
-        <v>240</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="96"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="87" t="s">
+      <c r="B23" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="89"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="16">
+        <v>120</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="16">
+        <v>120</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="16">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.9" customHeight="1">
+      <c r="A27" s="89"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="16">
+        <v>120</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="89"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>120</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="89"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="16">
+        <v>120</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="26.4">
+      <c r="A30" s="89"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="16">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="89"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16">
+        <v>120</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="89"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="16">
+        <v>120</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="52.8">
+      <c r="A33" s="89"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="16">
+        <v>120</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="89"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="16">
+        <v>120</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="88">
+        <v>5</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="16">
+        <v>120</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A36" s="89"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16">
+        <v>120</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.95" customHeight="1">
+      <c r="A37" s="89"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="16">
+        <v>120</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="22.95" customHeight="1">
+      <c r="A38" s="89"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="16">
+        <v>120</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="102" customHeight="1">
+      <c r="A39" s="89"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="16">
+        <v>120</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="89"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16">
+        <v>120</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="88">
+        <v>6</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="16">
+        <v>120</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="89"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="16">
+        <v>120</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="89"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="16">
+        <v>120</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="89"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="16">
+        <v>120</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="26.4">
+      <c r="A45" s="89"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="16">
+        <v>120</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="21">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="96"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="21">
-        <v>285</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="96"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="21">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="96"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="87" t="s">
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="89"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="16">
+        <v>120</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="88">
+        <v>7</v>
+      </c>
+      <c r="B47" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="16">
+        <v>120</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="89"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="16">
+        <v>120</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="89"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="16">
+        <v>120</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="89"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="16">
+        <v>120</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="26.4">
+      <c r="A51" s="89"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="16">
+        <v>120</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="21">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.4">
-      <c r="A9" s="96"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="21">
-        <f>K1-G10-G8</f>
-        <v>285</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="96"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="21">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="95">
-        <v>2</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="87" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="89"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="16">
+        <v>120</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="88">
+        <v>8</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="16">
+        <v>120</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="89"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="16">
+        <v>120</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="89"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="16">
+        <v>120</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="89"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="16">
+        <v>120</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" ht="118.8">
+      <c r="A57" s="89"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="16">
+        <v>120</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="89"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="16">
+        <v>120</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="88">
+        <v>9</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="16">
+        <v>120</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="89"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="16">
+        <v>120</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="47"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="89"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="16">
+        <v>120</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="89"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="16">
+        <v>120</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="52.8">
+      <c r="A63" s="89"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="16">
+        <v>120</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="89"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="16">
+        <v>120</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="90">
+        <v>10</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="16">
+        <v>120</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="19.95" customHeight="1">
+      <c r="A66" s="90"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="16">
+        <v>120</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="47"/>
+    </row>
+    <row r="67" spans="1:8" ht="24" customHeight="1">
+      <c r="A67" s="90"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="16">
+        <v>120</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A68" s="90"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="16">
+        <v>120</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" ht="105" customHeight="1">
+      <c r="A69" s="90"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="16">
+        <v>120</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="21">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.4">
-      <c r="A12" s="96"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="21">
-        <f>K1-G13-G11</f>
-        <v>285</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="96"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="21">
-        <v>60</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="96"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="90">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="21">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="26.4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="21">
-        <v>285</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="26.4">
-      <c r="A16" s="96"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="21">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="95">
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="90"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="21">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.7" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="21">
-        <f>K1-G17-G19</f>
-        <v>285</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="21">
-        <v>60</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="46.95" customHeight="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="90">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="21">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="67.95" customHeight="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="21">
-        <v>285</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="96"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="21">
-        <v>60</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="95">
-        <v>4</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="21">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="96"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="21">
-        <f>K1-G23-G25</f>
-        <v>285</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="96"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="21">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="96"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="90">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="21">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="24.9" customHeight="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="21">
-        <v>285</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="96"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="21">
-        <v>60</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="96"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="26.4">
-      <c r="A30" s="96"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="21">
-        <f>K1-G29-G31</f>
-        <v>285</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="96"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="21">
-        <v>60</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="96"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="90">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="21">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="52.8">
-      <c r="A33" s="96"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="21">
-        <v>285</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="96"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="21">
-        <v>60</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="95">
-        <v>5</v>
-      </c>
-      <c r="B35" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="21">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="21">
-        <f>K1-G35-G37</f>
-        <v>285</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="22.95" customHeight="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="21">
-        <v>60</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="22.95" customHeight="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="90">
-        <v>35</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="21">
-        <v>15</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="102" customHeight="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="21">
-        <v>285</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="96"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="21">
-        <v>60</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="95">
-        <v>6</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="21">
-        <v>15</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="96"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="21">
-        <f>K1-G41-G43</f>
-        <v>285</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="96"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="21">
-        <v>60</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="96"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="90">
-        <v>45</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="21">
-        <v>15</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="26.4">
-      <c r="A45" s="96"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="21">
-        <v>285</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="F70" s="16">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="96"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="21">
-        <v>60</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="95">
-        <v>7</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="21">
-        <v>15</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="96"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="21">
-        <f>K1-G47-G49</f>
-        <v>285</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="96"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="21">
-        <v>60</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="96"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="90">
-        <v>55</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="21">
-        <v>15</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" ht="26.4">
-      <c r="A51" s="96"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="21">
-        <v>285</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="96"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="21">
-        <v>60</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="95">
-        <v>8</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="21">
-        <v>15</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="96"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="21">
-        <f>K1-G53-G55</f>
-        <v>285</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="96"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="21">
-        <v>60</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="96"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="90">
-        <v>65</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="21">
-        <v>15</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="118.8">
-      <c r="A57" s="96"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="21">
-        <v>285</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="96"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="21">
-        <v>60</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="95">
-        <v>9</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="21">
-        <v>15</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="96"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="21">
-        <f>K1-G59-G61</f>
-        <v>285</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="53"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="96"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="21">
-        <v>60</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="96"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91">
-        <v>70</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="21">
-        <v>15</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="52.8">
-      <c r="A63" s="96"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="21">
-        <v>285</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="96"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="21">
-        <v>60</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="93">
-        <v>10</v>
-      </c>
-      <c r="B65" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="21">
-        <v>15</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A66" s="93"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="21">
-        <f>K1-G65-G67</f>
-        <v>285</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="53"/>
-    </row>
-    <row r="67" spans="1:9" ht="24" customHeight="1">
-      <c r="A67" s="93"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="21">
-        <v>60</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" ht="19.2" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="90">
-        <v>70</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="21">
-        <v>15</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" ht="105" customHeight="1">
-      <c r="A69" s="93"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="21">
-        <v>285</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="93"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="21">
-        <v>60</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="F72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="11">
-        <f>SUMIF(F$11:F$70,F72,G$11:G$70)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="12">
-        <f>G72/$G$77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="F73" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" s="11">
-        <f>SUMIF(F$11:F$70,F73,G$11:G$70)</f>
-        <v>5700</v>
-      </c>
-      <c r="H73" s="12">
-        <f>G73/$G$77</f>
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="F74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="11">
-        <f>SUMIF(F$11:F$70,F74,G$11:G$70)</f>
-        <v>1200</v>
-      </c>
-      <c r="H74" s="12">
-        <f>G74/$G$77</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="F75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="11">
-        <f>SUMIF(F$11:F$70,F75,G$11:G$70)</f>
-        <v>300</v>
-      </c>
-      <c r="H75" s="12">
-        <f>G75/$G$77</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="F76" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="11">
-        <f>SUMIF(F$11:F$70,F76,G$11:G$70)</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="12">
-        <f>G76/$G$77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="F77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="13">
-        <f>SUM(G72:G76)</f>
-        <v>7200</v>
-      </c>
-      <c r="H77" s="14">
-        <f>SUM(H72:H76)</f>
-        <v>0.99999999999999989</v>
+      <c r="G70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="45">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
+  <mergeCells count="22">
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="A35:A40"/>
@@ -4691,34 +4354,27 @@
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"Online"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H70" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G70" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Online,Offline,Blended,Virtual training,Hybrid "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F70" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E70" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Concept/Lecture, Assignment/Lab, Test/Quiz, Exam, Guides/Review, Seminar/Workshop, Class Meeting, Product Increment"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4727,7 +4383,6 @@
   <headerFooter>
     <oddFooter>&amp;L18e-BM/DT/FSOFT v1/1&amp;CInternal use&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7962,13 +7617,13 @@
         <v>#REF!</v>
       </c>
       <c r="AJ4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="e">
         <f>IF("N",[0]!_xlnm._FilterDatabase,"AAAAAH/rVCY=")</f>
